--- a/UTS/Ujian/data/student_exam_scores.xlsx
+++ b/UTS/Ujian/data/student_exam_scores.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EDA\UTS\Ujian\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDBB13B-41BD-41BF-B317-CFB64A2AE0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="noSp0N+Tswi1b5q10FXUv6Cky9rG+q7ZA/gmjJpYycE="/>
@@ -18,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="256">
   <si>
     <t>student_id</t>
   </si>
@@ -42,9 +52,6 @@
   </si>
   <si>
     <t>S002</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
   <si>
     <t>S003</t>
@@ -794,31 +801,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1B1C1D"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1B1C1D"/>
       <name val="Arial"/>
     </font>
@@ -828,51 +836,57 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1062,23 +1076,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1112,18 +1126,18 @@
         <v>60.9</v>
       </c>
       <c r="E2" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1">
-        <v>40.8</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C3" s="2">
         <v>6.3</v>
@@ -1132,35 +1146,31 @@
         <v>74.8</v>
       </c>
       <c r="E3" s="2">
-        <v>68.0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>10.3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2">
         <v>59.1</v>
       </c>
       <c r="E4" s="2">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2">
         <v>42.1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>3.4</v>
@@ -1172,15 +1182,15 @@
         <v>90.9</v>
       </c>
       <c r="E5" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="F5" s="1">
         <v>29.3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>11.9</v>
@@ -1192,55 +1202,53 @@
         <v>53.9</v>
       </c>
       <c r="E6" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1">
         <v>48.6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D7" s="1">
         <v>82.6</v>
       </c>
       <c r="E7" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1">
         <v>21.2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>5.8</v>
       </c>
       <c r="D8" s="2">
-        <v>66.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="E8" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2">
         <v>22.9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>4.7</v>
@@ -1252,15 +1260,15 @@
         <v>62.2</v>
       </c>
       <c r="E9" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>3.6</v>
@@ -1268,59 +1276,55 @@
       <c r="C10" s="2">
         <v>8.4</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>11.5</v>
       </c>
       <c r="C11" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D11" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1">
         <v>42.2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2">
         <v>36.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>5.6</v>
@@ -1332,39 +1336,37 @@
         <v>51.5</v>
       </c>
       <c r="E13" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1">
         <v>29.1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>4.5</v>
       </c>
       <c r="C14" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D14" s="1">
         <v>60.3</v>
       </c>
       <c r="E14" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2">
         <v>6.2</v>
       </c>
@@ -1372,55 +1374,55 @@
         <v>79.5</v>
       </c>
       <c r="E15" s="2">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="F15" s="2">
         <v>34.1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>2.9</v>
       </c>
       <c r="C16" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D16" s="1">
         <v>88.3</v>
       </c>
       <c r="E16" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="F16" s="1">
-        <v>35.2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D17" s="3">
+        <v>88.3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>86</v>
+      </c>
+      <c r="F17" s="3">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4.4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>88.3</v>
-      </c>
-      <c r="E17" s="4">
-        <v>86.0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>35.2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>7.9</v>
@@ -1429,18 +1431,18 @@
         <v>7.9</v>
       </c>
       <c r="D18" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>3.2</v>
@@ -1452,15 +1454,15 @@
         <v>85.8</v>
       </c>
       <c r="E19" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1">
         <v>26.4</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>3.2</v>
@@ -1472,15 +1474,15 @@
         <v>85.8</v>
       </c>
       <c r="E20" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1">
         <v>26.4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>1.6</v>
@@ -1492,15 +1494,15 @@
         <v>83.5</v>
       </c>
       <c r="E21" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1">
         <v>28.8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>2.1</v>
@@ -1509,18 +1511,18 @@
         <v>7.3</v>
       </c>
       <c r="D22" s="1">
-        <v>76.9</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="E22" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1">
         <v>30.7</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>9.9</v>
@@ -1532,15 +1534,15 @@
         <v>92.5</v>
       </c>
       <c r="E23" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1">
         <v>35.6</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>9.9</v>
@@ -1552,55 +1554,55 @@
         <v>92.5</v>
       </c>
       <c r="E24" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1">
         <v>35.6</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C25" s="1">
         <v>8.5</v>
       </c>
       <c r="D25" s="1">
-        <v>81.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="E25" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="F25" s="1">
         <v>31.4</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>3.5</v>
       </c>
       <c r="C26" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
         <v>75.3</v>
       </c>
       <c r="E26" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="F26" s="1">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>1.3</v>
@@ -1612,18 +1614,18 @@
         <v>66.8</v>
       </c>
       <c r="E27" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1">
         <v>24.7</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C28" s="1">
         <v>5.6</v>
@@ -1632,15 +1634,15 @@
         <v>94.9</v>
       </c>
       <c r="E28" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1">
         <v>28.8</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>2.1</v>
@@ -1649,18 +1651,18 @@
         <v>5.2</v>
       </c>
       <c r="D29" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="F29" s="1">
         <v>31.6</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
         <v>2.7</v>
@@ -1672,15 +1674,15 @@
         <v>84.8</v>
       </c>
       <c r="E30" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="F30" s="1">
         <v>35.9</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
         <v>10.5</v>
@@ -1692,55 +1694,55 @@
         <v>56.4</v>
       </c>
       <c r="E31" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1">
         <v>37.1</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
         <v>1.9</v>
       </c>
       <c r="C32" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1">
         <v>94.6</v>
       </c>
       <c r="E32" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="F32" s="1">
         <v>26.1</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
         <v>5.5</v>
       </c>
       <c r="D33" s="1">
-        <v>77.4</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="E33" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="F33" s="1">
         <v>30.6</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
         <v>1.8</v>
@@ -1749,18 +1751,18 @@
         <v>7.6</v>
       </c>
       <c r="D34" s="1">
-        <v>71.4</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="E34" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="F34" s="1">
         <v>25.2</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1">
         <v>11.7</v>
@@ -1772,15 +1774,15 @@
         <v>97.9</v>
       </c>
       <c r="E35" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="F35" s="1">
         <v>42.7</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1">
         <v>9.4</v>
@@ -1789,38 +1791,36 @@
         <v>8.1</v>
       </c>
       <c r="D36" s="1">
-        <v>80.4</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="E36" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="F36" s="1">
         <v>35.1</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2">
         <v>8</v>
-      </c>
-      <c r="C37" s="2">
-        <v>8.0</v>
       </c>
       <c r="D37" s="2">
         <v>75.3</v>
       </c>
       <c r="E37" s="2">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="F37" s="2">
         <v>28.1</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1">
         <v>6.6</v>
@@ -1832,15 +1832,15 @@
         <v>87.6</v>
       </c>
       <c r="E38" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="F38" s="1">
         <v>35.1</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1">
         <v>5.2</v>
@@ -1849,38 +1849,38 @@
         <v>5.2</v>
       </c>
       <c r="D39" s="1">
-        <v>75.9</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="E39" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="F39" s="1">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1">
         <v>6.7</v>
       </c>
       <c r="C40" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D40" s="1">
         <v>88.6</v>
       </c>
       <c r="E40" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F40" s="1">
         <v>33.4</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1">
         <v>9.9</v>
@@ -1892,35 +1892,35 @@
         <v>63.5</v>
       </c>
       <c r="E41" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="F41" s="1">
         <v>44.8</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1">
         <v>4.5</v>
       </c>
       <c r="D42" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="E42" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="F42" s="1">
         <v>26.4</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1">
         <v>4.5</v>
@@ -1932,18 +1932,18 @@
         <v>85.3</v>
       </c>
       <c r="E43" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="F43" s="1">
         <v>33.5</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1">
         <v>5.4</v>
@@ -1952,15 +1952,15 @@
         <v>69.8</v>
       </c>
       <c r="E44" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="F44" s="1">
         <v>35.5</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1">
         <v>4.7</v>
@@ -1972,35 +1972,35 @@
         <v>59.7</v>
       </c>
       <c r="E45" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="F45" s="1">
         <v>29.6</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1">
         <v>5.2</v>
       </c>
       <c r="C46" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D46" s="1">
         <v>63.7</v>
       </c>
       <c r="E46" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="F46" s="1">
         <v>29.2</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1">
         <v>11.3</v>
@@ -2009,18 +2009,18 @@
         <v>6.3</v>
       </c>
       <c r="D47" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="E47" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="F47" s="1">
         <v>46.4</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
         <v>11.5</v>
@@ -2032,58 +2032,56 @@
         <v>74.7</v>
       </c>
       <c r="E48" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="F48" s="1">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D49" s="2">
         <v>72.7</v>
       </c>
       <c r="E49" s="2">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="F49" s="2">
-        <v>35.3</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1">
         <v>5.8</v>
       </c>
       <c r="C50" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D50" s="1">
         <v>55.1</v>
       </c>
       <c r="E50" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F50" s="1">
         <v>27.7</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C51" s="1">
         <v>6.3</v>
@@ -2092,75 +2090,75 @@
         <v>97.4</v>
       </c>
       <c r="E51" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="F51" s="1">
-        <v>37.8</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1">
         <v>9.9</v>
       </c>
       <c r="C52" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D52" s="1">
         <v>70.7</v>
       </c>
       <c r="E52" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="F52" s="1">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1">
         <v>7.1</v>
       </c>
       <c r="C53" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D53" s="1">
         <v>52.5</v>
       </c>
       <c r="E53" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="F53" s="1">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D54" s="1">
         <v>98.2</v>
       </c>
       <c r="E54" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="F54" s="1">
         <v>43.3</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1">
         <v>3.2</v>
@@ -2172,78 +2170,78 @@
         <v>61.2</v>
       </c>
       <c r="E55" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="F55" s="1">
         <v>30.2</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D56" s="1">
         <v>73.7</v>
       </c>
       <c r="E56" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="F56" s="1">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1">
         <v>6.9</v>
       </c>
       <c r="C57" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D57" s="1">
         <v>97.9</v>
       </c>
       <c r="E57" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="F57" s="1">
         <v>45.8</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1">
         <v>6.2</v>
       </c>
       <c r="C58" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D58" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="F58" s="1">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C59" s="1">
         <v>5.5</v>
@@ -2252,35 +2250,35 @@
         <v>56.8</v>
       </c>
       <c r="E59" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F59" s="1">
         <v>23.7</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1">
         <v>3.7</v>
       </c>
       <c r="C60" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D60" s="1">
         <v>88.3</v>
       </c>
       <c r="E60" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="F60" s="1">
-        <v>34.2</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1">
         <v>6.5</v>
@@ -2292,15 +2290,15 @@
         <v>88.1</v>
       </c>
       <c r="E61" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="F61" s="1">
         <v>34.6</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1">
         <v>6.5</v>
@@ -2312,35 +2310,35 @@
         <v>88.1</v>
       </c>
       <c r="E62" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="F62" s="1">
         <v>34.6</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D63" s="1">
         <v>51.2</v>
       </c>
       <c r="E63" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="F63" s="1">
         <v>34.1</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1">
         <v>3.3</v>
@@ -2352,35 +2350,35 @@
         <v>87.2</v>
       </c>
       <c r="E64" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="F64" s="1">
         <v>30.7</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C65" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D65" s="1">
         <v>52.5</v>
       </c>
       <c r="E65" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="F65" s="1">
         <v>23.2</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1">
         <v>7.2</v>
@@ -2389,21 +2387,21 @@
         <v>7.6</v>
       </c>
       <c r="D66" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="E66" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="F66" s="1">
         <v>30.8</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C67" s="1">
         <v>7.1</v>
@@ -2412,15 +2410,15 @@
         <v>59.1</v>
       </c>
       <c r="E67" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F67" s="1">
         <v>30.7</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1">
         <v>5.4</v>
@@ -2432,15 +2430,15 @@
         <v>92.7</v>
       </c>
       <c r="E68" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="F68" s="1">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1">
         <v>3.9</v>
@@ -2452,15 +2450,15 @@
         <v>92.8</v>
       </c>
       <c r="E69" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="F69" s="1">
         <v>26.5</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1">
         <v>5.2</v>
@@ -2469,58 +2467,58 @@
         <v>6.8</v>
       </c>
       <c r="D70" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="E70" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="F70" s="1">
         <v>28.7</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1">
         <v>10.7</v>
       </c>
       <c r="C71" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D71" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="E71" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="F71" s="1">
         <v>36.1</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1">
         <v>3.9</v>
       </c>
       <c r="C72" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D72" s="1">
         <v>53.2</v>
       </c>
       <c r="E72" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="F72" s="1">
         <v>23.9</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1">
         <v>3.9</v>
@@ -2532,15 +2530,15 @@
         <v>51.4</v>
       </c>
       <c r="E73" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F73" s="1">
         <v>24.1</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1">
         <v>3.4</v>
@@ -2552,15 +2550,15 @@
         <v>62.2</v>
       </c>
       <c r="E74" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="F74" s="1">
         <v>28.9</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1">
         <v>1.2</v>
@@ -2572,55 +2570,53 @@
         <v>97.5</v>
       </c>
       <c r="E75" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="F75" s="1">
         <v>26.8</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1">
         <v>10.3</v>
       </c>
       <c r="C76" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D76" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="E76" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="F76" s="1">
         <v>39.5</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2">
         <v>3.7</v>
       </c>
       <c r="C77" s="2">
-        <v>8.7</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D77" s="2"/>
       <c r="E77" s="2">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2">
         <v>31.1</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1">
         <v>10.9</v>
@@ -2632,15 +2628,15 @@
         <v>87.7</v>
       </c>
       <c r="E78" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="F78" s="1">
         <v>48.9</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1">
         <v>1.5</v>
@@ -2652,15 +2648,15 @@
         <v>99.4</v>
       </c>
       <c r="E79" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="F79" s="1">
         <v>23.1</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1">
         <v>6.9</v>
@@ -2672,35 +2668,35 @@
         <v>67.5</v>
       </c>
       <c r="E80" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="F80" s="1">
         <v>40.9</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1">
         <v>5.4</v>
       </c>
       <c r="C81" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D81" s="1">
         <v>95.2</v>
       </c>
       <c r="E81" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="F81" s="1">
         <v>26.3</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2">
         <v>6.7</v>
@@ -2709,38 +2705,36 @@
         <v>4.5</v>
       </c>
       <c r="D82" s="2">
-        <v>70.9</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E82" s="2"/>
       <c r="F82" s="2">
         <v>30.7</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1">
         <v>10.5</v>
       </c>
       <c r="C83" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D83" s="1">
         <v>73.2</v>
       </c>
       <c r="E83" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="F83" s="1">
-        <v>36.2</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1">
         <v>8.5</v>
@@ -2749,18 +2743,18 @@
         <v>4.8</v>
       </c>
       <c r="D84" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="E84" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="F84" s="1">
         <v>36.1</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1">
         <v>5.8</v>
@@ -2769,18 +2763,18 @@
         <v>8.5</v>
       </c>
       <c r="D85" s="1">
-        <v>73.1</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="E85" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="F85" s="1">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1">
         <v>5.9</v>
@@ -2792,95 +2786,89 @@
         <v>51.4</v>
       </c>
       <c r="E86" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F86" s="1">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" s="2">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="E87" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2">
         <v>23.8</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" s="2">
         <v>5.7</v>
       </c>
       <c r="D88" s="2">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="E88" s="2">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2">
         <v>34.5</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1">
         <v>10.6</v>
       </c>
       <c r="C89" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D89" s="1">
         <v>51.3</v>
       </c>
       <c r="E89" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F89" s="1">
         <v>35.1</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C90" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2">
         <v>57.5</v>
       </c>
       <c r="E90" s="2">
-        <v>58.0</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1">
         <v>3.5</v>
@@ -2892,35 +2880,33 @@
         <v>61.6</v>
       </c>
       <c r="E91" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="F91" s="1">
         <v>21.7</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B92" s="2"/>
       <c r="C92" s="2">
         <v>4.2</v>
       </c>
       <c r="D92" s="2">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="F92" s="2">
         <v>27.5</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2">
         <v>3.2</v>
@@ -2929,18 +2915,16 @@
         <v>7.4</v>
       </c>
       <c r="D93" s="2">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="E93" s="2">
-        <v>81.0</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+        <v>81</v>
+      </c>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1">
         <v>7.3</v>
@@ -2952,15 +2936,15 @@
         <v>71.8</v>
       </c>
       <c r="E94" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="F94" s="1">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1">
         <v>1.7</v>
@@ -2972,35 +2956,35 @@
         <v>66.8</v>
       </c>
       <c r="E95" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="F95" s="1">
         <v>28.1</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C96" s="1">
         <v>4.7</v>
       </c>
       <c r="D96" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="E96" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="F96" s="1">
         <v>33.5</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1">
         <v>6.9</v>
@@ -3012,15 +2996,15 @@
         <v>78.2</v>
       </c>
       <c r="E97" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="F97" s="1">
         <v>32.6</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1">
         <v>3.5</v>
@@ -3032,55 +3016,55 @@
         <v>95.1</v>
       </c>
       <c r="E98" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="F98" s="1">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1">
         <v>7.6</v>
       </c>
       <c r="C99" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D99" s="1">
         <v>88.5</v>
       </c>
       <c r="E99" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="F99" s="1">
-        <v>36.2</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1">
         <v>3.9</v>
       </c>
       <c r="C100" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D100" s="1">
         <v>66.3</v>
       </c>
       <c r="E100" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="F100" s="1">
-        <v>34.8</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2">
         <v>8.1</v>
@@ -3088,82 +3072,80 @@
       <c r="C101" s="2">
         <v>5.6</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D101" s="2"/>
       <c r="E101" s="2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F101" s="2">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1">
         <v>8.5</v>
       </c>
       <c r="C102" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D102" s="1">
         <v>69.7</v>
       </c>
       <c r="E102" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="F102" s="1">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1">
         <v>6.8</v>
       </c>
       <c r="C103" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D103" s="1">
         <v>58.3</v>
       </c>
       <c r="E103" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="F103" s="1">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1">
         <v>6.3</v>
       </c>
       <c r="C104" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D104" s="1">
         <v>88.3</v>
       </c>
       <c r="E104" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="F104" s="1">
         <v>41.1</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C105" s="1">
         <v>7.2</v>
@@ -3172,35 +3154,35 @@
         <v>71.8</v>
       </c>
       <c r="E105" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="F105" s="1">
         <v>37.5</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1">
         <v>11.7</v>
       </c>
       <c r="C106" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D106" s="1">
-        <v>73.4</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="E106" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F106" s="1">
         <v>39.9</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1">
         <v>9.4</v>
@@ -3212,15 +3194,15 @@
         <v>87.4</v>
       </c>
       <c r="E107" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="F107" s="1">
         <v>39.9</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1">
         <v>8.1</v>
@@ -3229,18 +3211,18 @@
         <v>6.7</v>
       </c>
       <c r="D108" s="1">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="E108" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F108" s="1">
         <v>42.3</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1">
         <v>5.6</v>
@@ -3249,41 +3231,41 @@
         <v>5.9</v>
       </c>
       <c r="D109" s="1">
-        <v>81.6</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="E109" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="F109" s="1">
-        <v>34.7</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1">
         <v>9.4</v>
       </c>
       <c r="C110" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D110" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E110" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="F110" s="1">
         <v>47.9</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C111" s="1">
         <v>8.1</v>
@@ -3292,95 +3274,95 @@
         <v>56.3</v>
       </c>
       <c r="E111" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="F111" s="1">
         <v>32.9</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1">
         <v>8.4</v>
       </c>
       <c r="C112" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D112" s="1">
         <v>58.5</v>
       </c>
       <c r="E112" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F112" s="1">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C113" s="1">
         <v>6.6</v>
       </c>
       <c r="D113" s="1">
-        <v>67.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E113" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="F113" s="1">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C114" s="1">
         <v>6.6</v>
       </c>
       <c r="D114" s="1">
-        <v>67.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E114" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="F114" s="1">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1">
         <v>6.9</v>
       </c>
       <c r="C115" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D115" s="1">
         <v>58.8</v>
       </c>
       <c r="E115" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F115" s="1">
         <v>38.1</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1">
         <v>3.6</v>
@@ -3392,15 +3374,15 @@
         <v>55.3</v>
       </c>
       <c r="E116" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="F116" s="1">
         <v>30.3</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1">
         <v>4.7</v>
@@ -3412,38 +3394,38 @@
         <v>62.2</v>
       </c>
       <c r="E117" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="F117" s="1">
         <v>22.9</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1">
         <v>2.1</v>
       </c>
       <c r="C118" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D118" s="1">
         <v>54.3</v>
       </c>
       <c r="E118" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="F118" s="1">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C119" s="1">
         <v>4.3</v>
@@ -3452,35 +3434,35 @@
         <v>75.8</v>
       </c>
       <c r="E119" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="F119" s="1">
         <v>18.3</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C120" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D120" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="E120" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="F120" s="1">
         <v>51.3</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1">
         <v>11.8</v>
@@ -3492,15 +3474,15 @@
         <v>91.5</v>
       </c>
       <c r="E121" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="F121" s="1">
         <v>44.1</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1">
         <v>8.4</v>
@@ -3509,38 +3491,36 @@
         <v>7.5</v>
       </c>
       <c r="D122" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="E122" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="F122" s="1">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B123" s="2"/>
       <c r="C123" s="2">
         <v>8.9</v>
       </c>
       <c r="D123" s="2">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="E123" s="2">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2">
         <v>32.5</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2">
         <v>6.5</v>
@@ -3548,19 +3528,17 @@
       <c r="C124" s="2">
         <v>5.2</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D124" s="2"/>
       <c r="E124" s="2">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="F124" s="2">
         <v>36.9</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1">
         <v>5.7</v>
@@ -3572,15 +3550,15 @@
         <v>74.2</v>
       </c>
       <c r="E125" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="F125" s="1">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1">
         <v>1.4</v>
@@ -3592,15 +3570,15 @@
         <v>84.7</v>
       </c>
       <c r="E126" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="F126" s="1">
-        <v>32.2</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>5.2</v>
@@ -3608,39 +3586,35 @@
       <c r="C127" s="2">
         <v>7.8</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D127" s="2"/>
       <c r="E127" s="2">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="F127" s="2">
         <v>29.6</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>2.3</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C128" s="2"/>
       <c r="D128" s="2">
         <v>76.8</v>
       </c>
       <c r="E128" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="F128" s="2">
         <v>21.7</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1">
         <v>10.7</v>
@@ -3652,18 +3626,18 @@
         <v>78.2</v>
       </c>
       <c r="E129" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="F129" s="1">
         <v>45.7</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C130" s="1">
         <v>7.7</v>
@@ -3672,18 +3646,18 @@
         <v>87.7</v>
       </c>
       <c r="E130" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="F130" s="1">
         <v>38.6</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C131" s="1">
         <v>6.9</v>
@@ -3692,15 +3666,15 @@
         <v>81.5</v>
       </c>
       <c r="E131" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="F131" s="1">
         <v>36.1</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1">
         <v>11.3</v>
@@ -3712,15 +3686,15 @@
         <v>85.4</v>
       </c>
       <c r="E132" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="F132" s="1">
         <v>45.3</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1">
         <v>7.5</v>
@@ -3732,15 +3706,15 @@
         <v>99.2</v>
       </c>
       <c r="E133" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="F133" s="1">
         <v>37.9</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1">
         <v>3.1</v>
@@ -3752,18 +3726,18 @@
         <v>90.4</v>
       </c>
       <c r="E134" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F134" s="1">
         <v>34.4</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C135" s="1">
         <v>7.6</v>
@@ -3772,15 +3746,15 @@
         <v>63.4</v>
       </c>
       <c r="E135" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="F135" s="1">
         <v>38.4</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1">
         <v>11.9</v>
@@ -3792,15 +3766,15 @@
         <v>84.5</v>
       </c>
       <c r="E136" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="F136" s="1">
         <v>44.1</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" s="1">
         <v>3.6</v>
@@ -3809,21 +3783,21 @@
         <v>7.6</v>
       </c>
       <c r="D137" s="1">
-        <v>80.6</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E137" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="F137" s="1">
         <v>31.8</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C138" s="1">
         <v>6.1</v>
@@ -3832,35 +3806,35 @@
         <v>83.4</v>
       </c>
       <c r="E138" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="F138" s="1">
-        <v>34.2</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1">
         <v>4.2</v>
       </c>
       <c r="C139" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D139" s="1">
         <v>97.5</v>
       </c>
       <c r="E139" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="F139" s="1">
         <v>30.3</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1">
         <v>10.3</v>
@@ -3872,38 +3846,38 @@
         <v>87.5</v>
       </c>
       <c r="E140" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="F140" s="1">
-        <v>37.2</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" s="1">
         <v>7.7</v>
       </c>
       <c r="C141" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D141" s="1">
-        <v>81.9</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="E141" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="F141" s="1">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C142" s="2">
         <v>7.1</v>
@@ -3911,96 +3885,92 @@
       <c r="D142" s="2">
         <v>58.7</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E142" s="2"/>
       <c r="F142" s="2">
         <v>40.5</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" s="1">
         <v>9.9</v>
       </c>
       <c r="C143" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D143" s="1">
         <v>55.3</v>
       </c>
       <c r="E143" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="F143" s="1">
         <v>34.5</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2">
         <v>7.6</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C144" s="2"/>
       <c r="D144" s="2">
         <v>73.2</v>
       </c>
       <c r="E144" s="2">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="F144" s="2">
         <v>33.9</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1">
         <v>10.8</v>
       </c>
       <c r="C145" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D145" s="1">
         <v>54.2</v>
       </c>
       <c r="E145" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="F145" s="1">
         <v>37.9</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" s="1">
         <v>1.8</v>
       </c>
       <c r="C146" s="1">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D146" s="1">
         <v>58.4</v>
       </c>
       <c r="E146" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="F146" s="1">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1">
         <v>1.8</v>
@@ -4012,18 +3982,18 @@
         <v>91.1</v>
       </c>
       <c r="E147" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="F147" s="1">
         <v>30.1</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C148" s="1">
         <v>6.5</v>
@@ -4032,18 +4002,18 @@
         <v>82.8</v>
       </c>
       <c r="E148" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F148" s="1">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C149" s="1">
         <v>6.8</v>
@@ -4052,18 +4022,18 @@
         <v>84.8</v>
       </c>
       <c r="E149" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F149" s="1">
-        <v>40.3</v>
-      </c>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C150" s="1">
         <v>5.5</v>
@@ -4072,18 +4042,18 @@
         <v>53.6</v>
       </c>
       <c r="E150" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="F150" s="1">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C151" s="2">
         <v>8.1</v>
@@ -4091,56 +4061,54 @@
       <c r="D151" s="2">
         <v>90.3</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E151" s="2"/>
       <c r="F151" s="2">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1">
         <v>3.9</v>
       </c>
       <c r="C152" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D152" s="1">
         <v>50.3</v>
       </c>
       <c r="E152" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F152" s="1">
         <v>32.4</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1">
         <v>5.9</v>
       </c>
       <c r="C153" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D153" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="E153" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="F153" s="1">
-        <v>33.8</v>
-      </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1">
         <v>10.5</v>
@@ -4149,18 +4117,18 @@
         <v>5.4</v>
       </c>
       <c r="D154" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="E154" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="F154" s="1">
         <v>42.7</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1">
         <v>7.1</v>
@@ -4172,15 +4140,15 @@
         <v>85.1</v>
       </c>
       <c r="E155" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="F155" s="1">
         <v>40.4</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>7.9</v>
@@ -4189,18 +4157,16 @@
         <v>5.3</v>
       </c>
       <c r="D156" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E156" s="2">
-        <v>88.0</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" s="1">
         <v>7.7</v>
@@ -4209,21 +4175,21 @@
         <v>4.8</v>
       </c>
       <c r="D157" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="E157" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="F157" s="1">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C158" s="1">
         <v>6.1</v>
@@ -4232,35 +4198,35 @@
         <v>70.2</v>
       </c>
       <c r="E158" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="F158" s="1">
         <v>36.9</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" s="1">
         <v>10.1</v>
       </c>
       <c r="C159" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D159" s="1">
         <v>57.6</v>
       </c>
       <c r="E159" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="F159" s="1">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" s="2">
         <v>10.1</v>
@@ -4268,19 +4234,17 @@
       <c r="C160" s="2">
         <v>6.5</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D160" s="2"/>
       <c r="E160" s="2">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="F160" s="2">
         <v>39.5</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" s="1">
         <v>1.5</v>
@@ -4292,15 +4256,15 @@
         <v>80.2</v>
       </c>
       <c r="E161" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="F161" s="1">
         <v>23.9</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" s="1">
         <v>11.2</v>
@@ -4312,15 +4276,15 @@
         <v>89.9</v>
       </c>
       <c r="E162" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="F162" s="1">
         <v>46.7</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" s="1">
         <v>10.5</v>
@@ -4332,15 +4296,15 @@
         <v>92.5</v>
       </c>
       <c r="E163" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="F163" s="1">
         <v>40.6</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" s="1">
         <v>3.4</v>
@@ -4349,58 +4313,54 @@
         <v>6.2</v>
       </c>
       <c r="D164" s="1">
-        <v>67.4</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="E164" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F164" s="1">
         <v>24.7</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2">
         <v>7.4</v>
       </c>
       <c r="C165" s="2">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D165" s="2">
-        <v>68.1</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="E165" s="2">
-        <v>53.0</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" s="2">
         <v>10.9</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C166" s="2"/>
       <c r="D166" s="2">
         <v>81.3</v>
       </c>
       <c r="E166" s="2">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="F166" s="2">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" s="1">
         <v>3.7</v>
@@ -4412,15 +4372,15 @@
         <v>80.5</v>
       </c>
       <c r="E167" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="F167" s="1">
         <v>33.4</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" s="1">
         <v>7.1</v>
@@ -4432,15 +4392,15 @@
         <v>63.6</v>
       </c>
       <c r="E168" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="F168" s="1">
         <v>27.1</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" s="2">
         <v>4.8</v>
@@ -4451,36 +4411,34 @@
       <c r="D169" s="2">
         <v>85.9</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E169" s="2"/>
       <c r="F169" s="2">
-        <v>32.2</v>
-      </c>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C170" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D170" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="E170" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F170" s="1">
         <v>27.3</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" s="1">
         <v>10.6</v>
@@ -4492,38 +4450,36 @@
         <v>60.6</v>
       </c>
       <c r="E171" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="F171" s="1">
         <v>39.6</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C172" s="2">
         <v>8.5</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D172" s="2"/>
       <c r="E172" s="2">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="F172" s="2">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C173" s="1">
         <v>7.9</v>
@@ -4532,15 +4488,15 @@
         <v>87.6</v>
       </c>
       <c r="E173" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="F173" s="1">
         <v>43.1</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1">
         <v>7.8</v>
@@ -4552,15 +4508,15 @@
         <v>92.4</v>
       </c>
       <c r="E174" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="F174" s="1">
-        <v>38.3</v>
-      </c>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" s="1">
         <v>3.5</v>
@@ -4572,15 +4528,15 @@
         <v>89.1</v>
       </c>
       <c r="E175" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="F175" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" s="1">
         <v>1.3</v>
@@ -4592,15 +4548,15 @@
         <v>60.7</v>
       </c>
       <c r="E176" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="F176" s="1">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" s="1">
         <v>3.3</v>
@@ -4609,58 +4565,56 @@
         <v>8.1</v>
       </c>
       <c r="D177" s="1">
-        <v>70.4</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="E177" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="F177" s="1">
         <v>20.8</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" s="1">
         <v>2.1</v>
       </c>
       <c r="C178" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D178" s="1">
         <v>50.3</v>
       </c>
       <c r="E178" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F178" s="1">
         <v>26.5</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2">
         <v>2.9</v>
       </c>
       <c r="C179" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D179" s="2">
         <v>92.4</v>
       </c>
       <c r="E179" s="2">
-        <v>62.0</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" s="1">
         <v>9.6</v>
@@ -4672,15 +4626,15 @@
         <v>82.5</v>
       </c>
       <c r="E180" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="F180" s="1">
         <v>44.1</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" s="1">
         <v>6.8</v>
@@ -4692,15 +4646,15 @@
         <v>89.1</v>
       </c>
       <c r="E181" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="F181" s="1">
-        <v>39.3</v>
-      </c>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" s="1">
         <v>9.5</v>
@@ -4712,18 +4666,18 @@
         <v>56.9</v>
       </c>
       <c r="E182" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="F182" s="1">
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C183" s="1">
         <v>7.1</v>
@@ -4732,15 +4686,15 @@
         <v>54.1</v>
       </c>
       <c r="E183" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F183" s="1">
         <v>31.3</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" s="1">
         <v>9.6</v>
@@ -4752,58 +4706,58 @@
         <v>98.3</v>
       </c>
       <c r="E184" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="F184" s="1">
         <v>40.9</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" s="1">
         <v>8.1</v>
       </c>
       <c r="C185" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D185" s="1">
         <v>62.4</v>
       </c>
       <c r="E185" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F185" s="1">
         <v>34.4</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C186" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D186" s="1">
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="E186" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="F186" s="1">
         <v>30.2</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C187" s="2">
         <v>6.4</v>
@@ -4812,55 +4766,51 @@
         <v>83.5</v>
       </c>
       <c r="E187" s="2">
-        <v>57.0</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2">
         <v>1.8</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C188" s="2"/>
       <c r="D188" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="E188" s="2">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="F188" s="2">
         <v>26.1</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1">
+        <v>9</v>
+      </c>
+      <c r="C189" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D189" s="1">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E189" s="1">
+        <v>77</v>
+      </c>
+      <c r="F189" s="1">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B189" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="C189" s="1">
-        <v>5.1</v>
-      </c>
-      <c r="D189" s="1">
-        <v>76.1</v>
-      </c>
-      <c r="E189" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="F189" s="1">
-        <v>38.2</v>
-      </c>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="B190" s="1">
         <v>10.1</v>
@@ -4872,35 +4822,35 @@
         <v>62.5</v>
       </c>
       <c r="E190" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="F190" s="1">
         <v>44.7</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" s="1">
         <v>10.5</v>
       </c>
       <c r="C191" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D191" s="1">
         <v>72.8</v>
       </c>
       <c r="E191" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="F191" s="1">
-        <v>39.8</v>
-      </c>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" s="1">
         <v>1.9</v>
@@ -4909,21 +4859,21 @@
         <v>8.4</v>
       </c>
       <c r="D192" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="E192" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="F192" s="1">
         <v>30.6</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C193" s="1">
         <v>7.4</v>
@@ -4932,15 +4882,15 @@
         <v>91.5</v>
       </c>
       <c r="E193" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="F193" s="1">
         <v>41.2</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" s="1">
         <v>7.4</v>
@@ -4952,15 +4902,15 @@
         <v>90.1</v>
       </c>
       <c r="E194" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="F194" s="1">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2">
         <v>5.5</v>
@@ -4969,18 +4919,16 @@
         <v>7.2</v>
       </c>
       <c r="D195" s="2">
-        <v>80.1</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="E195" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" s="1">
         <v>11.4</v>
@@ -4989,18 +4937,18 @@
         <v>5.5</v>
       </c>
       <c r="D196" s="1">
-        <v>77.1</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="E196" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="F196" s="1">
         <v>47.9</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" s="1">
         <v>2.8</v>
@@ -5012,38 +4960,38 @@
         <v>81.3</v>
       </c>
       <c r="E197" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="F197" s="1">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C198" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D198" s="1">
         <v>53.8</v>
       </c>
       <c r="E198" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="F198" s="1">
         <v>21.9</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C199" s="1">
         <v>7.3</v>
@@ -5052,15 +5000,15 @@
         <v>50.5</v>
       </c>
       <c r="E199" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="F199" s="1">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" s="1">
         <v>1.6</v>
@@ -5072,15 +5020,15 @@
         <v>63.8</v>
       </c>
       <c r="E200" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="F200" s="1">
         <v>28.2</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" s="1">
         <v>11.1</v>
@@ -5092,15 +5040,15 @@
         <v>79.2</v>
       </c>
       <c r="E201" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="F201" s="1">
         <v>39.9</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" s="1">
         <v>8.9</v>
@@ -5112,55 +5060,53 @@
         <v>51.3</v>
       </c>
       <c r="E202" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F202" s="1">
         <v>31.3</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203" s="1">
         <v>3.9</v>
       </c>
       <c r="C203" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D203" s="1">
         <v>55.4</v>
       </c>
       <c r="E203" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="F203" s="1">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" s="2">
         <v>9.5</v>
       </c>
       <c r="C204" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D204" s="2">
-        <v>77.6</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E204" s="2"/>
       <c r="F204" s="2">
         <v>41.1</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B205" s="2">
         <v>8.5</v>
@@ -5171,16 +5117,14 @@
       <c r="D205" s="2">
         <v>93.1</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E205" s="2"/>
       <c r="F205" s="2">
-        <v>38.8</v>
-      </c>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B206" s="1">
         <v>10.6</v>
@@ -5192,15 +5136,15 @@
         <v>91.6</v>
       </c>
       <c r="E206" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="F206" s="1">
         <v>46.4</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B207" s="1">
         <v>3.4</v>
@@ -5212,55 +5156,53 @@
         <v>97.7</v>
       </c>
       <c r="E207" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="F207" s="1">
         <v>26.5</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208" s="1">
         <v>4.3</v>
       </c>
       <c r="C208" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D208" s="1">
         <v>62.6</v>
       </c>
       <c r="E208" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="F208" s="1">
         <v>25.2</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B209" s="2">
         <v>6.8</v>
       </c>
       <c r="C209" s="2">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D209" s="2">
         <v>56.6</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E209" s="2"/>
       <c r="F209" s="2">
         <v>31.5</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B210" s="1">
         <v>7.5</v>
@@ -5272,55 +5214,53 @@
         <v>73.8</v>
       </c>
       <c r="E210" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="F210" s="1">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B211" s="2"/>
       <c r="C211" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D211" s="2">
         <v>88.2</v>
       </c>
       <c r="E211" s="2">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="F211" s="2">
         <v>31.8</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212" s="1">
         <v>8.1</v>
       </c>
       <c r="C212" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D212" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="E212" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="F212" s="1">
         <v>41.1</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B213" s="1">
         <v>3.7</v>
@@ -5332,15 +5272,15 @@
         <v>60.6</v>
       </c>
       <c r="E213" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="F213" s="1">
         <v>28.8</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" s="1">
         <v>7.4</v>
@@ -5349,38 +5289,38 @@
         <v>7.2</v>
       </c>
       <c r="D214" s="1">
-        <v>67.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="E214" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="F214" s="1">
-        <v>39.8</v>
-      </c>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" s="1">
         <v>3.9</v>
       </c>
       <c r="C215" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D215" s="1">
         <v>73.7</v>
       </c>
       <c r="E215" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="F215" s="1">
         <v>26.9</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216" s="1">
         <v>2.4</v>
@@ -5392,58 +5332,56 @@
         <v>55.7</v>
       </c>
       <c r="E216" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="F216" s="1">
         <v>29.9</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" s="1">
         <v>5.4</v>
       </c>
       <c r="C217" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D217" s="1">
         <v>94.1</v>
       </c>
       <c r="E217" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="F217" s="1">
         <v>39.4</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2">
         <v>1.5</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C218" s="2"/>
       <c r="D218" s="2">
         <v>82.5</v>
       </c>
       <c r="E218" s="2">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="F218" s="2">
         <v>25.4</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C219" s="1">
         <v>8.4</v>
@@ -5452,15 +5390,15 @@
         <v>64.3</v>
       </c>
       <c r="E219" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="F219" s="1">
         <v>36.1</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B220" s="1">
         <v>2.5</v>
@@ -5472,95 +5410,93 @@
         <v>91.4</v>
       </c>
       <c r="E220" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="F220" s="1">
         <v>22.8</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C221" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D221" s="1">
         <v>71.3</v>
       </c>
       <c r="E221" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="F221" s="1">
         <v>41.6</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2">
         <v>2.1</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C222" s="2"/>
       <c r="D222" s="2">
         <v>60.5</v>
       </c>
       <c r="E222" s="2">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="F222" s="2">
         <v>20.5</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" s="1">
         <v>3.1</v>
       </c>
       <c r="C223" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D223" s="1">
-        <v>68.9</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="E223" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="F223" s="1">
         <v>23.4</v>
       </c>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B224" s="1">
         <v>8.1</v>
       </c>
       <c r="C224" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D224" s="1">
         <v>82.1</v>
       </c>
       <c r="E224" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="F224" s="1">
-        <v>38.2</v>
-      </c>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B225" s="1">
         <v>2.7</v>
@@ -5569,18 +5505,18 @@
         <v>8.6</v>
       </c>
       <c r="D225" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="E225" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="F225" s="1">
         <v>29.8</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226" s="2">
         <v>5.7</v>
@@ -5588,19 +5524,17 @@
       <c r="C226" s="2">
         <v>7.7</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D226" s="2"/>
       <c r="E226" s="2">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="F226" s="2">
         <v>30.9</v>
       </c>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B227" s="1">
         <v>9.1</v>
@@ -5612,35 +5546,35 @@
         <v>89.8</v>
       </c>
       <c r="E227" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="F227" s="1">
-        <v>40.3</v>
-      </c>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B228" s="1">
         <v>3.5</v>
       </c>
       <c r="C228" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D228" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="E228" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="F228" s="1">
         <v>23.6</v>
       </c>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229" s="1">
         <v>5.7</v>
@@ -5649,58 +5583,56 @@
         <v>5.6</v>
       </c>
       <c r="D229" s="1">
-        <v>65.6</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="E229" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="F229" s="1">
         <v>29.9</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230" s="1">
         <v>3.3</v>
       </c>
       <c r="C230" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D230" s="1">
         <v>83.9</v>
       </c>
       <c r="E230" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="F230" s="1">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231" s="2">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C231" s="2">
         <v>6.9</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D231" s="2"/>
       <c r="E231" s="2">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="F231" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2">
         <v>3.3</v>
@@ -5711,36 +5643,34 @@
       <c r="D232" s="2">
         <v>89.9</v>
       </c>
-      <c r="E232" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E232" s="2"/>
       <c r="F232" s="2">
         <v>28.2</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" s="1">
         <v>6.1</v>
       </c>
       <c r="C233" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D233" s="1">
         <v>86.6</v>
       </c>
       <c r="E233" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="F233" s="1">
         <v>31.4</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B234" s="1">
         <v>1.3</v>
@@ -5752,18 +5682,18 @@
         <v>83.6</v>
       </c>
       <c r="E234" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="F234" s="1">
         <v>31.2</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C235" s="2">
         <v>5.5</v>
@@ -5772,55 +5702,53 @@
         <v>88.9</v>
       </c>
       <c r="E235" s="2">
-        <v>48.0</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
+        <v>48</v>
+      </c>
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B236" s="1">
         <v>11.2</v>
       </c>
       <c r="C236" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D236" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="E236" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="F236" s="1">
         <v>42.7</v>
       </c>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B237" s="1">
         <v>3.4</v>
       </c>
       <c r="C237" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D237" s="1">
         <v>81.8</v>
       </c>
       <c r="E237" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="F237" s="1">
         <v>32.1</v>
       </c>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238" s="1">
         <v>7.9</v>
@@ -5832,15 +5760,15 @@
         <v>68.5</v>
       </c>
       <c r="E238" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="F238" s="1">
         <v>31.4</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B239" s="2">
         <v>11.2</v>
@@ -5852,18 +5780,16 @@
         <v>84.4</v>
       </c>
       <c r="E239" s="2">
-        <v>70.0</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+      <c r="F239" s="2"/>
+    </row>
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C240" s="1">
         <v>8.9</v>
@@ -5872,15 +5798,15 @@
         <v>92.5</v>
       </c>
       <c r="E240" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="F240" s="1">
         <v>29.7</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B241" s="1">
         <v>3.5</v>
@@ -5892,38 +5818,38 @@
         <v>79.8</v>
       </c>
       <c r="E241" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="F241" s="1">
-        <v>37.2</v>
-      </c>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B242" s="1">
         <v>4.7</v>
       </c>
       <c r="C242" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D242" s="1">
         <v>56.1</v>
       </c>
       <c r="E242" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="F242" s="1">
         <v>33.6</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B243" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C243" s="2">
         <v>6.8</v>
@@ -5931,19 +5857,17 @@
       <c r="D243" s="2">
         <v>62.1</v>
       </c>
-      <c r="E243" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E243" s="2"/>
       <c r="F243" s="2">
         <v>29.8</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C244" s="1">
         <v>6.1</v>
@@ -5952,15 +5876,15 @@
         <v>77.3</v>
       </c>
       <c r="E244" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="F244" s="1">
         <v>32.1</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B245" s="1">
         <v>8.4</v>
@@ -5972,15 +5896,15 @@
         <v>92.6</v>
       </c>
       <c r="E245" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="F245" s="1">
         <v>36.1</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B246" s="1">
         <v>6.6</v>
@@ -5992,15 +5916,15 @@
         <v>87.4</v>
       </c>
       <c r="E246" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="F246" s="1">
         <v>28.6</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B247" s="1">
         <v>5.7</v>
@@ -6012,15 +5936,15 @@
         <v>71.8</v>
       </c>
       <c r="E247" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="F247" s="1">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B248" s="1">
         <v>5.6</v>
@@ -6032,15 +5956,15 @@
         <v>92.5</v>
       </c>
       <c r="E248" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="F248" s="1">
-        <v>32.2</v>
-      </c>
-    </row>
-    <row r="249" ht="15.75" customHeight="1">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B249" s="1">
         <v>6.2</v>
@@ -6052,15 +5976,15 @@
         <v>86.7</v>
       </c>
       <c r="E249" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="F249" s="1">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="250" ht="15.75" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250" s="1">
         <v>10.6</v>
@@ -6072,889 +5996,883 @@
         <v>70.8</v>
       </c>
       <c r="E250" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="F250" s="1">
         <v>41.9</v>
       </c>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C251" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D251" s="1">
         <v>75.2</v>
       </c>
       <c r="E251" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="F251" s="1">
         <v>31.1</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" s="4">
+        <v>20</v>
+      </c>
+      <c r="C252" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="D252" s="5">
+        <v>95.5</v>
+      </c>
+      <c r="E252" s="5">
+        <v>90</v>
+      </c>
+      <c r="F252" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B252" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="C252" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="D252" s="6">
-        <v>95.5</v>
-      </c>
-      <c r="E252" s="6">
-        <v>90.0</v>
-      </c>
-      <c r="F252" s="6">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="1" t="s">
+      <c r="B253" s="5">
+        <v>5</v>
+      </c>
+      <c r="C253" s="5">
+        <v>8</v>
+      </c>
+      <c r="D253" s="5">
+        <v>99</v>
+      </c>
+      <c r="E253" s="5">
+        <v>50</v>
+      </c>
+      <c r="F253" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B253" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C253" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="D253" s="6">
-        <v>99.0</v>
-      </c>
-      <c r="E253" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="F253" s="5">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="1" t="s">
+      <c r="B254" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C254" s="5">
+        <v>6</v>
+      </c>
+      <c r="D254" s="5">
+        <v>50</v>
+      </c>
+      <c r="E254" s="5">
+        <v>40</v>
+      </c>
+      <c r="F254" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B254" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C254" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="D254" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="E254" s="6">
-        <v>40.0</v>
-      </c>
-      <c r="F254" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="1" t="s">
+      <c r="B255" s="5">
+        <v>8</v>
+      </c>
+      <c r="C255" s="4">
+        <v>1</v>
+      </c>
+      <c r="D255" s="5">
+        <v>80</v>
+      </c>
+      <c r="E255" s="5">
+        <v>85</v>
+      </c>
+      <c r="F255" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B255" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="C255" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D255" s="6">
-        <v>80.0</v>
-      </c>
-      <c r="E255" s="6">
-        <v>85.0</v>
-      </c>
-      <c r="F255" s="6">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B256" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="C256" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="D256" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="E256" s="6">
-        <v>70.0</v>
-      </c>
-      <c r="F256" s="6">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
+      <c r="B256" s="5">
+        <v>7</v>
+      </c>
+      <c r="C256" s="5">
+        <v>7</v>
+      </c>
+      <c r="D256" s="4">
+        <v>20</v>
+      </c>
+      <c r="E256" s="5">
+        <v>70</v>
+      </c>
+      <c r="F256" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="$A$1:$F$1">
-    <sortState ref="A1:F1">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>